--- a/Threshold/Cu/2His_1Cys_only_for_Cu/4.xlsx
+++ b/Threshold/Cu/2His_1Cys_only_for_Cu/4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Fe_2His_1Asp_old\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\250330_Metal_installer_revision\Cu\2His_1Cys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F246FCD4-4314-4438-BD46-805BAAAC52AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73C04678-9846-4CD1-A5B4-D41FBC66EA66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17985" windowHeight="10695" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="7395" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,7 +455,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C2" s="2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -466,7 +466,7 @@
         <v>3.8</v>
       </c>
       <c r="C3" s="2">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
